--- a/document/database.xlsx
+++ b/document/database.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\congp\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\laragon\www\website\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{631B531A-F1FD-4910-BFB4-BA2F7EA54B57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A7D676F-9AC2-493D-B575-740FB4EA6A59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FAC98B5E-77E0-4C26-916B-280B2F67641C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
   <si>
     <t>admin</t>
   </si>
@@ -124,13 +124,19 @@
   </si>
   <si>
     <t>description_lesson</t>
+  </si>
+  <si>
+    <t>order</t>
+  </si>
+  <si>
+    <t>id_order</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,6 +171,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -192,7 +205,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -205,6 +218,8 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -522,14 +537,14 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.5703125" customWidth="1"/>
-    <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="25.42578125" customWidth="1"/>
+    <col min="1" max="1" width="27.5703125" customWidth="1"/>
+    <col min="2" max="2" width="25.42578125" customWidth="1"/>
+    <col min="3" max="3" width="29.7109375" customWidth="1"/>
     <col min="4" max="4" width="17.5703125" customWidth="1"/>
     <col min="5" max="5" width="19.28515625" customWidth="1"/>
   </cols>
@@ -538,53 +553,62 @@
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="6" t="s">
         <v>8</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -592,8 +616,7 @@
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -601,41 +624,35 @@
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>25</v>
       </c>
     </row>
@@ -643,8 +660,7 @@
       <c r="A14" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="7" t="s">
+      <c r="B14" s="7" t="s">
         <v>26</v>
       </c>
     </row>
@@ -652,8 +668,7 @@
       <c r="A15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -661,54 +676,47 @@
       <c r="A16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="5" t="s">
+      <c r="B18" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/document/database.xlsx
+++ b/document/database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\laragon\www\website\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A7D676F-9AC2-493D-B575-740FB4EA6A59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16989734-4904-4131-B273-DED9878BA562}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FAC98B5E-77E0-4C26-916B-280B2F67641C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
   <si>
     <t>admin</t>
   </si>
@@ -120,9 +120,6 @@
     <t>name_lesson</t>
   </si>
   <si>
-    <t>link_ybt_lesson</t>
-  </si>
-  <si>
     <t>description_lesson</t>
   </si>
   <si>
@@ -130,13 +127,34 @@
   </si>
   <si>
     <t>id_order</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>cash_admin</t>
+  </si>
+  <si>
+    <t>history_lesson</t>
+  </si>
+  <si>
+    <t>rate</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>author</t>
+  </si>
+  <si>
+    <t>link_ytb_lesson</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,37 +164,60 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFC00000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFC00000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFC00000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFC00000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -205,21 +246,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -534,189 +581,213 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8EF85EA-74B4-48F0-BFE6-8EB161BD5C2E}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.5703125" customWidth="1"/>
-    <col min="2" max="2" width="25.42578125" customWidth="1"/>
-    <col min="3" max="3" width="29.7109375" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" customWidth="1"/>
+    <col min="2" max="2" width="28.28515625" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" customWidth="1"/>
+    <col min="4" max="4" width="27.7109375" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" customWidth="1"/>
+    <col min="7" max="7" width="20.140625" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="D2" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="D3" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="E3" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="13"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="13"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="15" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B9" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="13"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="14"/>
+      <c r="B10" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="15" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2" t="s">
+      <c r="E10" s="13"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="14"/>
+      <c r="B11" s="14" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="2"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="2"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="2"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
